--- a/Priset/CharacterStat.xlsx
+++ b/Priset/CharacterStat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>#characterstat[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,9 @@
   <si>
     <t>MHeath</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Defence</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -414,6 +417,9 @@
       <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -434,6 +440,9 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -454,6 +463,9 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -474,6 +486,9 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -494,6 +509,9 @@
       <c r="E6" s="1">
         <v>1</v>
       </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -514,6 +532,9 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -534,6 +555,9 @@
       <c r="E8" s="1">
         <v>1</v>
       </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -554,6 +578,9 @@
       <c r="E9" s="1">
         <v>1</v>
       </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -574,6 +601,9 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -594,6 +624,9 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -614,6 +647,9 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -634,6 +670,9 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -654,6 +693,9 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -674,6 +716,9 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -694,6 +739,9 @@
       <c r="E16" s="1">
         <v>1</v>
       </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -714,6 +762,9 @@
       <c r="E17" s="1">
         <v>1</v>
       </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
@@ -733,6 +784,9 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
@@ -752,6 +806,9 @@
       <c r="E19" s="1">
         <v>1</v>
       </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
@@ -770,6 +827,9 @@
       </c>
       <c r="E20" s="1">
         <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>

--- a/Priset/CharacterStat.xlsx
+++ b/Priset/CharacterStat.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -435,7 +435,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -458,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -596,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -779,7 +779,7 @@
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E18" s="1">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>

--- a/Priset/CharacterStat.xlsx
+++ b/Priset/CharacterStat.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -576,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -760,7 +760,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="1">
         <v>0</v>

--- a/Priset/CharacterStat.xlsx
+++ b/Priset/CharacterStat.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -429,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -452,7 +452,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -475,7 +475,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
         <v>2</v>
@@ -550,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
@@ -590,7 +590,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -613,7 +613,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -636,7 +636,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -757,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
@@ -773,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -801,7 +801,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>

--- a/Priset/CharacterStat.xlsx
+++ b/Priset/CharacterStat.xlsx
@@ -97,6 +97,657 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>815340</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30612</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>998220</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>213492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19" descr="0.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="815340" y="472572"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>812940</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>35832</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>995820</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>218712</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20" descr="1.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="812940" y="698772"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>810540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>40936</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>993404</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21" descr="2.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="810540" y="924856"/>
+          <a:ext cx="182864" cy="182864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>823380</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1006244</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>206160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22" descr="3.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="823380" y="1128196"/>
+          <a:ext cx="182864" cy="182864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>833820</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>48976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1016684</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>10860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24" descr="5.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="833820" y="1595836"/>
+          <a:ext cx="182864" cy="182864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>839040</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1021904</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="그림 25" descr="6.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="839040" y="1806796"/>
+          <a:ext cx="182864" cy="182864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>829020</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>51912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1011900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>13812</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26" descr="7.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="829020" y="2040732"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>849480</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>64752</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1032360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>26652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27" descr="8.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="849480" y="2274552"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>839460</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>54732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1022340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>16632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28" descr="9.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="839460" y="2485512"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>829440</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1012320</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29" descr="10.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="829440" y="2704092"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>827040</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1009920</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30" descr="11.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="827040" y="2884572"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>824640</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>24672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1007520</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>207552</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31" descr="12.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="824640" y="2897412"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>829860</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1012740</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>205152</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32" descr="13.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="829860" y="3336972"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>827460</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>27492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1010340</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>210372</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="그림 33" descr="14.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="827460" y="3563172"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>832680</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1015560</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>2232</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="그림 34" descr="15.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="832680" y="3796992"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>837900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1020780</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>213192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="그림 35" descr="16.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="837900" y="4007952"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>827880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>35532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1010760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>218412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="그림 36" descr="17.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="827880" y="1361412"/>
+          <a:ext cx="182880" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J35"/>
+  <dimension ref="A2:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -398,7 +1049,7 @@
     <col min="4" max="4" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.3984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">
@@ -553,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -576,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -705,16 +1356,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>0</v>
@@ -737,30 +1388,29 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="1">
         <v>0</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" s="1">
         <v>0</v>
@@ -773,13 +1423,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
@@ -791,46 +1441,11 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>8</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="1">
-        <v>8</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
@@ -890,13 +1505,10 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="8:9">
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Priset/CharacterStat.xlsx
+++ b/Priset/CharacterStat.xlsx
@@ -408,15 +408,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>839460</xdr:colOff>
+      <xdr:colOff>847080</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>54732</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1022340</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>16632</xdr:rowOff>
+      <xdr:rowOff>31872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1029960</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>214752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -433,7 +433,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="839460" y="2485512"/>
+          <a:off x="847080" y="2462652"/>
           <a:ext cx="182880" cy="182880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1038,7 +1038,7 @@
   <dimension ref="A2:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1047,9 +1047,9 @@
     <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10">

--- a/Priset/CharacterStat.xlsx
+++ b/Priset/CharacterStat.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>#characterstat[{}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,30 @@
   </si>
   <si>
     <t>Defence</t>
+  </si>
+  <si>
+    <t>최대 체력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">캐릭터 인덱스 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 카운트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 타입(0 :근거리, 1: 화살, 2: 파이어볼, 3: 파란 파이어볼, 4: 볼트, 5: 해골</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1035,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1047,11 +1071,31 @@
     <col min="2" max="2" width="13.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="66" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>0</v>
